--- a/trunk/QT/Qt/CureOffice/Installs/data/工资汇总表(人事版)模板.xlsx
+++ b/trunk/QT/Qt/CureOffice/Installs/data/工资汇总表(人事版)模板.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Qt\projects\TaoCodeSVN\SoftWareProgramming\trunk\QT\Qt\build-CureOffice-Qt_5_5_1_msvc2013-Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Qt\projects\TaoCodeSVN\SoftWareProgramming\trunk\QT\Qt\CureOffice\Installs\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="80">
   <si>
     <t>当月转正员工</t>
   </si>
@@ -294,10 +294,6 @@
   </si>
   <si>
     <t>李四</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>王五</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -806,15 +802,57 @@
     <xf numFmtId="49" fontId="14" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="13" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="177" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -839,49 +877,7 @@
     <xf numFmtId="43" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1176,7 +1172,7 @@
       <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1248,59 +1244,59 @@
       </c>
     </row>
     <row r="2" spans="1:43" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="71" t="s">
+      <c r="C2" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="72" t="s">
+      <c r="D2" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="73" t="s">
+      <c r="E2" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="58" t="s">
+      <c r="F2" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="79" t="s">
+      <c r="G2" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="67" t="s">
+      <c r="H2" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="80" t="s">
+      <c r="I2" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="59" t="s">
+      <c r="J2" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="60"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="59" t="s">
+      <c r="K2" s="74"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="60"/>
-      <c r="O2" s="61"/>
-      <c r="P2" s="77" t="s">
+      <c r="N2" s="74"/>
+      <c r="O2" s="75"/>
+      <c r="P2" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="Q2" s="75" t="s">
+      <c r="Q2" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="R2" s="77" t="s">
+      <c r="R2" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="S2" s="67" t="s">
+      <c r="S2" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="T2" s="67" t="s">
+      <c r="T2" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="U2" s="67" t="s">
+      <c r="U2" s="60" t="s">
         <v>41</v>
       </c>
       <c r="V2" s="24" t="s">
@@ -1309,47 +1305,47 @@
       <c r="W2" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="X2" s="58" t="s">
+      <c r="X2" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="Y2" s="58"/>
-      <c r="Z2" s="58"/>
-      <c r="AA2" s="58" t="s">
+      <c r="Y2" s="61"/>
+      <c r="Z2" s="61"/>
+      <c r="AA2" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="58"/>
-      <c r="AC2" s="58"/>
-      <c r="AD2" s="67" t="s">
+      <c r="AB2" s="61"/>
+      <c r="AC2" s="61"/>
+      <c r="AD2" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="AE2" s="67" t="s">
+      <c r="AE2" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="AF2" s="68" t="s">
+      <c r="AF2" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="AG2" s="58" t="s">
+      <c r="AG2" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="AH2" s="57" t="s">
+      <c r="AH2" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="AI2" s="57" t="s">
+      <c r="AI2" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="AJ2" s="57" t="s">
+      <c r="AJ2" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="AK2" s="57" t="s">
+      <c r="AK2" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="AL2" s="65" t="s">
+      <c r="AL2" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="AM2" s="56" t="s">
+      <c r="AM2" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="AN2" s="57" t="s">
+      <c r="AN2" s="72" t="s">
         <v>22</v>
       </c>
       <c r="AO2" s="41" t="s">
@@ -1363,27 +1359,27 @@
       </c>
     </row>
     <row r="3" spans="1:43" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="71"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="64"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="63"/>
-      <c r="O3" s="64"/>
-      <c r="P3" s="78"/>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="78"/>
-      <c r="S3" s="58"/>
-      <c r="T3" s="58"/>
-      <c r="U3" s="58"/>
+      <c r="A3" s="67"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="77"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="59"/>
+      <c r="Q3" s="57"/>
+      <c r="R3" s="59"/>
+      <c r="S3" s="61"/>
+      <c r="T3" s="61"/>
+      <c r="U3" s="61"/>
       <c r="V3" s="24"/>
       <c r="W3" s="24"/>
       <c r="X3" s="43" t="s">
@@ -1404,17 +1400,17 @@
       <c r="AC3" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="AD3" s="58"/>
-      <c r="AE3" s="58"/>
-      <c r="AF3" s="69"/>
-      <c r="AG3" s="58"/>
-      <c r="AH3" s="58"/>
-      <c r="AI3" s="58"/>
-      <c r="AJ3" s="58"/>
-      <c r="AK3" s="58"/>
-      <c r="AL3" s="66"/>
-      <c r="AM3" s="56"/>
-      <c r="AN3" s="58"/>
+      <c r="AD3" s="61"/>
+      <c r="AE3" s="61"/>
+      <c r="AF3" s="63"/>
+      <c r="AG3" s="61"/>
+      <c r="AH3" s="61"/>
+      <c r="AI3" s="61"/>
+      <c r="AJ3" s="61"/>
+      <c r="AK3" s="61"/>
+      <c r="AL3" s="80"/>
+      <c r="AM3" s="71"/>
+      <c r="AN3" s="61"/>
       <c r="AO3" s="38"/>
       <c r="AP3" s="39"/>
       <c r="AQ3" s="39"/>
@@ -1942,10 +1938,10 @@
         <v>29</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E8" s="20">
-        <v>150</v>
+        <v>16</v>
       </c>
       <c r="F8" s="19" t="s">
         <v>30</v>
@@ -2070,20 +2066,6 @@
     <sortCondition ref="A3:A168"/>
   </sortState>
   <mergeCells count="30">
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
     <mergeCell ref="AM2:AM3"/>
     <mergeCell ref="AN2:AN3"/>
     <mergeCell ref="J2:L3"/>
@@ -2100,6 +2082,20 @@
     <mergeCell ref="AG2:AG3"/>
     <mergeCell ref="X2:Z2"/>
     <mergeCell ref="AA2:AC2"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="P2:P3"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <dataValidations count="2">
